--- a/tests/A01_pixell_test_plan_client (1).xlsx
+++ b/tests/A01_pixell_test_plan_client (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>#VALUE!</t>
   </si>
@@ -58,46 +58,97 @@
     <t>Attributes set to input values.</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2025, "Komal", "Aulakh", "komalaulakh@gmail.com"</t>
+  </si>
+  <si>
+    <t>Client object created with correct properties</t>
+  </si>
+  <si>
     <t>Exception raised when invalid client number.</t>
   </si>
   <si>
+    <t>"wrong", "Komal ", "Aulakh",                            "valid@email.com"</t>
+  </si>
+  <si>
+    <t>Raises ValueError for that client number is invalid</t>
+  </si>
+  <si>
     <t>Exception raised when blank first_name.</t>
   </si>
   <si>
+    <t>1001, " ", "Aulakh",                       "valid@email.com"</t>
+  </si>
+  <si>
+    <t>Raises ValueError that first name is blank</t>
+  </si>
+  <si>
     <t>Exception raised when blank last_name.</t>
   </si>
   <si>
+    <t>1002, "Komal", " ",                   "valid@email.com"</t>
+  </si>
+  <si>
+    <t>Raises ValueError that last name is blank</t>
+  </si>
+  <si>
     <t>Email address set to default value when invalid.</t>
   </si>
   <si>
+    <t>2003, "Komal", "Aulakh",                     "not-an-email"</t>
+  </si>
+  <si>
+    <t>Email defaults to "email@pixell-river.com"</t>
+  </si>
+  <si>
     <t>client_number</t>
   </si>
   <si>
     <t>Returns client_number attribute.</t>
   </si>
   <si>
+    <t>Valid Client</t>
+  </si>
+  <si>
+    <t>Returns 2025</t>
+  </si>
+  <si>
     <t>first_name</t>
   </si>
   <si>
     <t>Returns first_name attribute.</t>
   </si>
   <si>
+    <t>Returns "Komal"</t>
+  </si>
+  <si>
     <t>last_name</t>
   </si>
   <si>
     <t>Returns last_name attribute.</t>
   </si>
   <si>
+    <t>Returns "Aulakh"</t>
+  </si>
+  <si>
     <t>email_address</t>
   </si>
   <si>
     <t>Returns email_address attribute.</t>
   </si>
   <si>
+    <t>Returns "komalaulakh@gmail.com"</t>
+  </si>
+  <si>
     <t>__str__</t>
   </si>
   <si>
     <t>Returns string in expected format.</t>
+  </si>
+  <si>
+    <t>Returns string formatted as:          Client Number:2025                                First Name: Komal                                  Last Name: Aulakh                                          Email Address:                                         komalaulakh@gmail.com</t>
   </si>
   <si>
     <t>Add more rows as necessary</t>
@@ -845,7 +896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="38.25">
       <c r="A7" s="17"/>
       <c r="B7" s="18">
         <v>1</v>
@@ -856,9 +907,15 @@
       <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="66">
       <c r="A8" s="17"/>
@@ -869,11 +926,17 @@
         <v>12</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="66">
       <c r="A9" s="17"/>
@@ -884,11 +947,17 @@
         <v>12</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="66">
       <c r="A10" s="17"/>
@@ -899,11 +968,17 @@
         <v>12</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="66">
       <c r="A11" s="17"/>
@@ -914,11 +989,17 @@
         <v>12</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="31.149999999999995">
       <c r="A12" s="1"/>
@@ -926,14 +1007,20 @@
         <v>6</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.149999999999995" customFormat="1" s="23">
       <c r="A13" s="24"/>
@@ -941,14 +1028,20 @@
         <v>7</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="31.149999999999995">
       <c r="A14" s="1"/>
@@ -956,14 +1049,20 @@
         <v>8</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.149999999999995">
       <c r="A15" s="1"/>
@@ -971,14 +1070,20 @@
         <v>9</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.149999999999995" customFormat="1" s="23">
       <c r="A16" s="24"/>
@@ -986,14 +1091,20 @@
         <v>10</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="31.149999999999995">
       <c r="A17" s="1"/>
@@ -1139,7 +1250,7 @@
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="25" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
